--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinoguzmanf@moravian.edu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsbra/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CDF698-7460-1F44-9E75-7D32C8DFA460}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog - BLANK" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog - BLANK'!$B$2:$V$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,7 +265,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{924B28E4-7E22-A240-8564-A59A9A5220BC}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -279,7 +286,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -320,6 +327,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -370,31 +378,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0732-BF46-B5D9-C9FE34D77710}"/>
             </c:ext>
@@ -409,11 +417,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2090279592"/>
-        <c:axId val="-2090276584"/>
+        <c:axId val="-821670560"/>
+        <c:axId val="-900167936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090279592"/>
+        <c:axId val="-821670560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090276584"/>
+        <c:crossAx val="-900167936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -431,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090276584"/>
+        <c:axId val="-900167936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090279592"/>
+        <c:crossAx val="-821670560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -491,7 +499,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -517,7 +525,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750E615D-347E-6A4B-9F72-A2F24D7CFC94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{750E615D-347E-6A4B-9F72-A2F24D7CFC94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71220CF6-F948-0441-AA0D-BBA2CFF5B18E}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -870,10 +878,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
@@ -891,7 +899,7 @@
     <col min="24" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="50" customHeight="1">
+    <row r="1" spans="2:28" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
@@ -922,7 +930,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="2:28" ht="35" customHeight="1">
+    <row r="2" spans="2:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -973,7 +981,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="2:28" ht="25" customHeight="1">
+    <row r="3" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1012,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="2:28" ht="25" customHeight="1">
+    <row r="4" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1055,7 +1063,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="2:28" ht="25" customHeight="1">
+    <row r="5" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1114,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="2:28" ht="25" customHeight="1">
+    <row r="6" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1165,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="2:28" ht="25" customHeight="1">
+    <row r="7" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1208,7 +1216,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="2:28" ht="25" customHeight="1">
+    <row r="8" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1267,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="2:28" ht="25" customHeight="1">
+    <row r="9" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1298,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="2:28" ht="25" customHeight="1">
+    <row r="10" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1329,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="2:28" ht="25" customHeight="1">
+    <row r="11" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1360,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="2:28" ht="25" customHeight="1">
+    <row r="12" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1391,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="2:28" ht="25" customHeight="1">
+    <row r="13" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1422,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="2:28" ht="25" customHeight="1">
+    <row r="14" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1453,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="2:28" ht="25" customHeight="1">
+    <row r="15" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
@@ -1476,7 +1484,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="2:28" ht="25" customHeight="1">
+    <row r="16" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
@@ -1507,7 +1515,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="2:28" ht="25" customHeight="1">
+    <row r="17" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1546,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="2:28" ht="25" customHeight="1">
+    <row r="18" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1577,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="2:28" ht="25" customHeight="1">
+    <row r="19" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1608,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="2:28" ht="25" customHeight="1">
+    <row r="20" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1639,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="2:28" ht="25" customHeight="1">
+    <row r="21" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1670,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="2:28" ht="25" customHeight="1">
+    <row r="22" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>1</v>
       </c>
@@ -1693,7 +1701,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="2:28" ht="25" customHeight="1">
+    <row r="23" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1732,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="2:28" ht="25" customHeight="1">
+    <row r="24" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1763,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="2:28" ht="25" customHeight="1">
+    <row r="25" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1786,7 +1794,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="2:28" ht="25" customHeight="1">
+    <row r="26" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1825,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="2:28" ht="25" customHeight="1">
+    <row r="27" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +1856,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="2:28" ht="35" customHeight="1">
+    <row r="28" spans="2:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1879,7 +1887,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="2:28" ht="21" customHeight="1">
+    <row r="29" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
@@ -1892,7 +1900,7 @@
       </c>
       <c r="G29" s="5">
         <f>SUM(G4:G28)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H29" s="5">
         <f>SUM(H3:H28)</f>
@@ -1931,7 +1939,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
@@ -1960,7 +1968,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
@@ -1989,7 +1997,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
@@ -2018,7 +2026,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="2:28">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
       <c r="D33" s="4"/>
@@ -2047,7 +2055,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="2:28">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
@@ -2076,7 +2084,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="2:28">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
@@ -2105,7 +2113,7 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="2:28">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -2134,7 +2142,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="2:28">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -2163,7 +2171,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="2:28">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
@@ -2192,7 +2200,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="2:28">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
@@ -2221,7 +2229,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="2:28">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
@@ -2250,7 +2258,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="2:28">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
@@ -2279,7 +2287,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="2:28">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -2308,7 +2316,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="2:28">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -2337,7 +2345,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="2:28">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -2366,7 +2374,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="2:28">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -2395,7 +2403,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="2:28">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -2424,7 +2432,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="2:28">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -2453,7 +2461,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="2:28">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -2482,7 +2490,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="2:28">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -2511,7 +2519,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="2:28">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -2540,7 +2548,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="2:28">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -2569,7 +2577,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="2:28">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -2598,7 +2606,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="2:28">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -2627,7 +2635,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="2:28">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -2656,7 +2664,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="2:28">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -2685,7 +2693,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="2:28">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -2714,7 +2722,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="2:28">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -2743,7 +2751,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="2:28">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -2772,7 +2780,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="2:28">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -2801,7 +2809,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="2:28">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -2830,7 +2838,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="2:28">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -2859,7 +2867,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="2:28">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -2888,7 +2896,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="2:28">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -2917,7 +2925,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="2:28">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -2946,7 +2954,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="2:28">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -2975,7 +2983,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="2:28">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -3004,7 +3012,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="2:28">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -3033,7 +3041,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="2:28">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -3062,7 +3070,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="2:28">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -3091,7 +3099,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="2:28">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -3120,7 +3128,7 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="2:28">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -3149,7 +3157,7 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="2:28">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -3178,7 +3186,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="2:28">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -3207,7 +3215,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="2:28">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -3236,7 +3244,7 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="2:28">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -3265,7 +3273,7 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="2:28">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -3294,7 +3302,7 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="2:28">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -3323,7 +3331,7 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="2:28">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -3352,7 +3360,7 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="2:28">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -3381,7 +3389,7 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="2:28">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -3410,7 +3418,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="2:28">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -3439,7 +3447,7 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="2:28">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -3468,7 +3476,7 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="2:28">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
@@ -3497,7 +3505,7 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="2:28">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -3526,7 +3534,7 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="2:28">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -3555,7 +3563,7 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="2:28">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -3584,7 +3592,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="2:28">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -3613,7 +3621,7 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="2:28">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -3642,7 +3650,7 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="2:28">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -3671,7 +3679,7 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="2:28">
+    <row r="90" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -3700,7 +3708,7 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="2:28">
+    <row r="91" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -3729,7 +3737,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="2:28">
+    <row r="92" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -3758,7 +3766,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="2:28">
+    <row r="93" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -3787,7 +3795,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="2:28">
+    <row r="94" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -3816,7 +3824,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="2:28">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -3845,7 +3853,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="2:28">
+    <row r="96" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
@@ -3874,7 +3882,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="2:28">
+    <row r="97" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -3903,7 +3911,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="2:28">
+    <row r="98" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -3932,7 +3940,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="2:28">
+    <row r="99" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -3961,7 +3969,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="2:28">
+    <row r="100" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -3990,7 +3998,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="2:28">
+    <row r="101" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -4019,7 +4027,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="2:28">
+    <row r="102" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -4048,7 +4056,7 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="2:28">
+    <row r="103" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -4077,7 +4085,7 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="2:28">
+    <row r="104" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -4106,7 +4114,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" spans="2:28">
+    <row r="105" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -4135,7 +4143,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="2:28">
+    <row r="106" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -4164,7 +4172,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="107" spans="2:28">
+    <row r="107" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -4193,7 +4201,7 @@
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
     </row>
-    <row r="108" spans="2:28">
+    <row r="108" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -4222,7 +4230,7 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
     </row>
-    <row r="109" spans="2:28">
+    <row r="109" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -4251,7 +4259,7 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
     </row>
-    <row r="110" spans="2:28">
+    <row r="110" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -4280,7 +4288,7 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
     </row>
-    <row r="111" spans="2:28">
+    <row r="111" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
@@ -4309,7 +4317,7 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
     </row>
-    <row r="112" spans="2:28">
+    <row r="112" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -4338,7 +4346,7 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
     </row>
-    <row r="113" spans="2:28">
+    <row r="113" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
@@ -4367,7 +4375,7 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
     </row>
-    <row r="114" spans="2:28">
+    <row r="114" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
@@ -4396,7 +4404,7 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
     </row>
-    <row r="115" spans="2:28">
+    <row r="115" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
@@ -4425,7 +4433,7 @@
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
     </row>
-    <row r="116" spans="2:28">
+    <row r="116" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
@@ -4454,7 +4462,7 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
     </row>
-    <row r="117" spans="2:28">
+    <row r="117" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -4483,7 +4491,7 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
     </row>
-    <row r="118" spans="2:28">
+    <row r="118" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4"/>
@@ -4512,7 +4520,7 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
     </row>
-    <row r="119" spans="2:28">
+    <row r="119" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
@@ -4541,7 +4549,7 @@
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
     </row>
-    <row r="120" spans="2:28">
+    <row r="120" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
@@ -4570,7 +4578,7 @@
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
     </row>
-    <row r="121" spans="2:28">
+    <row r="121" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
@@ -4599,7 +4607,7 @@
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
     </row>
-    <row r="122" spans="2:28">
+    <row r="122" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -4628,7 +4636,7 @@
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
     </row>
-    <row r="123" spans="2:28">
+    <row r="123" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>

--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsbra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsbra/Desktop/Classes/Data Structures/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Agile Sprint Backlog - BLANK" sheetId="6" r:id="rId1"/>
+    <sheet name="Agile Sprint Backlog" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog - BLANK'!$B$2:$V$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$V$28</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -25,12 +25,18 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>User Story #1</t>
   </si>
@@ -92,16 +98,10 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>DAY 6</t>
   </si>
   <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>UML</t>
-  </si>
-  <si>
-    <t>AddressGenerator</t>
+    <t>AdressGenerator</t>
   </si>
   <si>
     <t>Location</t>
@@ -113,10 +113,43 @@
     <t>LocationMapDisplay</t>
   </si>
   <si>
+    <t>Brandon</t>
+  </si>
+  <si>
     <t>Francis</t>
   </si>
   <si>
     <t>Jorge</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>AddressGenerator</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
+  </si>
+  <si>
+    <t>DAY 8</t>
+  </si>
+  <si>
+    <t>DAY 9</t>
+  </si>
+  <si>
+    <t>DAY 10</t>
+  </si>
+  <si>
+    <t>in Progress</t>
   </si>
 </sst>
 </file>
@@ -347,9 +380,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog - BLANK'!$G$2:$L$2</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$2:$Q$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>DAY 1</c:v>
                 </c:pt>
@@ -366,6 +399,21 @@
                   <c:v>DAY 5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>DAY 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAY 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAY 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAY 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAY 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SPRINT REVIEW</c:v>
                 </c:pt>
               </c:strCache>
@@ -373,30 +421,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog - BLANK'!$F$29:$L$29</c:f>
+              <c:f>'Agile Sprint Backlog'!$F$31:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,11 +480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-821670560"/>
-        <c:axId val="-900167936"/>
+        <c:axId val="-553039664"/>
+        <c:axId val="-553037344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-821670560"/>
+        <c:axId val="-553039664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-900167936"/>
+        <c:crossAx val="-553037344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,7 +502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-900167936"/>
+        <c:axId val="-553037344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-821670560"/>
+        <c:crossAx val="-553039664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -509,16 +572,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -876,9 +939,9 @@
   </sheetPr>
   <dimension ref="B1:AB123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -891,7 +954,7 @@
     <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
     <col min="7" max="11" width="10.83203125" style="3"/>
     <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="3" customWidth="1"/>
     <col min="14" max="20" width="10.83203125" style="3"/>
     <col min="21" max="21" width="10.83203125" style="3" customWidth="1"/>
     <col min="22" max="22" width="10.83203125" style="3"/>
@@ -962,14 +1025,23 @@
         <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -995,12 +1067,11 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -1014,22 +1085,22 @@
     </row>
     <row r="4" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9">
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9">
         <v>0.5</v>
       </c>
       <c r="G4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1046,12 +1117,21 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -1065,16 +1145,16 @@
     </row>
     <row r="5" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
@@ -1097,12 +1177,21 @@
       <c r="L5" s="9">
         <v>0</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1116,16 +1205,16 @@
     </row>
     <row r="6" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -1148,12 +1237,21 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1167,16 +1265,16 @@
     </row>
     <row r="7" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9">
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9">
         <v>4</v>
@@ -1199,12 +1297,21 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1218,16 +1325,16 @@
     </row>
     <row r="8" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F8" s="9">
         <v>0.5</v>
@@ -1250,12 +1357,21 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1281,12 +1397,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1300,24 +1415,53 @@
     </row>
     <row r="10" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1331,24 +1475,53 @@
     </row>
     <row r="11" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -1362,24 +1535,53 @@
     </row>
     <row r="12" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>2</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -1393,24 +1595,53 @@
     </row>
     <row r="13" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="9">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>2</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1423,25 +1654,54 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>2</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1455,24 +1715,53 @@
     </row>
     <row r="15" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
@@ -1485,25 +1774,24 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -1517,7 +1805,7 @@
     </row>
     <row r="17" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1529,12 +1817,11 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1548,7 +1835,7 @@
     </row>
     <row r="18" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1560,12 +1847,11 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -1578,25 +1864,24 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -1610,7 +1895,7 @@
     </row>
     <row r="20" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1622,12 +1907,11 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -1640,25 +1924,24 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -1684,12 +1967,11 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -1715,12 +1997,11 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -1733,25 +2014,24 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="B24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -1777,12 +2057,11 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -1795,25 +2074,24 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -1827,7 +2105,7 @@
     </row>
     <row r="27" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1839,12 +2117,11 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -1870,12 +2147,11 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -1888,46 +2164,24 @@
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
-        <f>SUM(F3:F28)</f>
-        <v>8</v>
-      </c>
-      <c r="G29" s="5">
-        <f>SUM(G4:G28)</f>
-        <v>2.5</v>
-      </c>
-      <c r="H29" s="5">
-        <f>SUM(H3:H28)</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <f>SUM(I3:I28)</f>
-        <v>1.5</v>
-      </c>
-      <c r="J29" s="5">
-        <f>SUM(J3:J28)</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K29" s="5">
-        <f>SUM(K3:K28)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L29" s="5">
-        <f>SUM(L3:L28)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="B29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -1940,23 +2194,24 @@
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="B30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -1969,23 +2224,60 @@
       <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B31" s="4"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <f>SUM(F3:F30)</f>
+        <v>21.5</v>
+      </c>
+      <c r="G31" s="5">
+        <f>SUM(G4:G30)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H31" s="5">
+        <f>SUM(H3:H30)</f>
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <f>SUM(I3:I30)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="5">
+        <f>SUM(J3:J30)</f>
+        <v>7.6</v>
+      </c>
+      <c r="K31" s="5">
+        <f>SUM(K3:K30)</f>
+        <v>2.6</v>
+      </c>
+      <c r="L31" s="5">
+        <f>SUM(L4:L30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="5">
+        <f>SUM(M3:M30)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N31" s="5">
+        <f>SUM(N3:N30)</f>
+        <v>4</v>
+      </c>
+      <c r="O31" s="5">
+        <f>SUM(O3:O30)</f>
+        <v>3</v>
+      </c>
+      <c r="P31" s="5">
+        <f>SUM(P3:P30)</f>
+        <v>3</v>
+      </c>
+      <c r="Q31" s="5">
+        <f>SUM(Q3:Q30)</f>
+        <v>4</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>

--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsbra/Desktop/Classes/Data Structures/Project3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinoguzmanf@moravian.edu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B89887-11C7-C049-B1F3-95D95373DA83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="6" r:id="rId1"/>
@@ -17,13 +18,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$V$28</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>User Story #1</t>
   </si>
@@ -151,12 +152,30 @@
   <si>
     <t>in Progress</t>
   </si>
+  <si>
+    <t>Resizable Map</t>
+  </si>
+  <si>
+    <t>Foor order</t>
+  </si>
+  <si>
+    <t>Cost Effetiveness</t>
+  </si>
+  <si>
+    <t>Strategy Design Pattern (Routes)</t>
+  </si>
+  <si>
+    <t>Small User Interface</t>
+  </si>
+  <si>
+    <t>Francis &amp; Jorge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,7 +317,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -319,7 +338,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -360,7 +379,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -421,51 +439,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$F$31:$Q$31</c:f>
+              <c:f>'Agile Sprint Backlog'!$F$34:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0732-BF46-B5D9-C9FE34D77710}"/>
             </c:ext>
@@ -562,7 +580,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -588,7 +606,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{750E615D-347E-6A4B-9F72-A2F24D7CFC94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750E615D-347E-6A4B-9F72-A2F24D7CFC94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -941,10 +959,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
@@ -962,7 +980,7 @@
     <col min="24" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:28" ht="50" customHeight="1">
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1011,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="2:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:28" ht="35" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1071,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:28" ht="25" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1101,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:28" ht="25" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1161,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:28" ht="25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1221,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:28" ht="25" customHeight="1">
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1263,7 +1281,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:28" ht="25" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1323,7 +1341,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:28" ht="25" customHeight="1">
       <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
@@ -1383,7 +1401,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:28" ht="25" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1431,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:28" ht="25" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1473,7 +1491,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:28" ht="25" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1533,7 +1551,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:28" ht="25" customHeight="1">
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1593,7 +1611,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:28" ht="25" customHeight="1">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1671,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:28" ht="25" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1731,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:28" ht="25" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
@@ -1773,7 +1791,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:28" ht="25" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1803,25 +1821,55 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:28" ht="25" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1833,25 +1881,55 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:28" ht="25" customHeight="1">
       <c r="B18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -1863,25 +1941,55 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:28" ht="25" customHeight="1">
       <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -1893,25 +2001,55 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:28" ht="25" customHeight="1">
       <c r="B20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -1923,25 +2061,55 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+    <row r="21" spans="2:28" ht="25" customHeight="1">
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -1953,25 +2121,55 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:28" ht="25" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -1983,25 +2181,55 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:28" ht="25" customHeight="1">
       <c r="B23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -2013,25 +2241,25 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+    <row r="24" spans="2:28" ht="25" customHeight="1">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -2043,7 +2271,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:28" ht="25" customHeight="1">
       <c r="B25" s="9" t="s">
         <v>1</v>
       </c>
@@ -2073,25 +2301,25 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+    <row r="26" spans="2:28" ht="25" customHeight="1">
+      <c r="B26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -2103,7 +2331,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:28" ht="25" customHeight="1">
       <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
@@ -2133,9 +2361,9 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="2:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:28" ht="35" customHeight="1">
       <c r="B28" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2163,25 +2391,25 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+    <row r="29" spans="2:28" ht="21" customHeight="1">
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -2193,9 +2421,9 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:28" ht="14">
       <c r="B30" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2223,61 +2451,25 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5">
-        <f>SUM(F3:F30)</f>
-        <v>21.5</v>
-      </c>
-      <c r="G31" s="5">
-        <f>SUM(G4:G30)</f>
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="5">
-        <f>SUM(H3:H30)</f>
+    <row r="31" spans="2:28" ht="14">
+      <c r="B31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="5">
-        <f>SUM(I3:I30)</f>
-        <v>1.5</v>
-      </c>
-      <c r="J31" s="5">
-        <f>SUM(J3:J30)</f>
-        <v>7.6</v>
-      </c>
-      <c r="K31" s="5">
-        <f>SUM(K3:K30)</f>
-        <v>2.6</v>
-      </c>
-      <c r="L31" s="5">
-        <f>SUM(L4:L30)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M31" s="5">
-        <f>SUM(M3:M30)</f>
-        <v>3.5</v>
-      </c>
-      <c r="N31" s="5">
-        <f>SUM(N3:N30)</f>
-        <v>4</v>
-      </c>
-      <c r="O31" s="5">
-        <f>SUM(O3:O30)</f>
-        <v>3</v>
-      </c>
-      <c r="P31" s="5">
-        <f>SUM(P3:P30)</f>
-        <v>3</v>
-      </c>
-      <c r="Q31" s="5">
-        <f>SUM(Q3:Q30)</f>
-        <v>4</v>
-      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -2289,23 +2481,25 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+    <row r="32" spans="2:28" ht="14">
+      <c r="B32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -2318,23 +2512,25 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+    <row r="33" spans="2:28" ht="14">
+      <c r="B33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -2347,23 +2543,61 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+    <row r="34" spans="2:28" ht="14">
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <f>SUM(F3:F33)</f>
+        <v>30</v>
+      </c>
+      <c r="G34" s="5">
+        <f>SUM(G4:G33)</f>
+        <v>6.5</v>
+      </c>
+      <c r="H34" s="5">
+        <f>SUM(H3:H33)</f>
+        <v>2</v>
+      </c>
+      <c r="I34" s="5">
+        <f>SUM(I3:I33)</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="5">
+        <f>SUM(J3:J33)</f>
+        <v>8.1</v>
+      </c>
+      <c r="K34" s="5">
+        <f>SUM(K3:K33)</f>
+        <v>2.6</v>
+      </c>
+      <c r="L34" s="5">
+        <f>SUM(L4:L33)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="5">
+        <f>SUM(M3:M33)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N34" s="5">
+        <f>SUM(N3:N33)</f>
+        <v>4</v>
+      </c>
+      <c r="O34" s="5">
+        <f>SUM(O3:O33)</f>
+        <v>3.5</v>
+      </c>
+      <c r="P34" s="5">
+        <f>SUM(P3:P33)</f>
+        <v>5</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>SUM(Q3:Q33)</f>
+        <v>4</v>
+      </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -2376,7 +2610,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:28">
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
@@ -2405,7 +2639,7 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:28">
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -2434,7 +2668,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:28">
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -2463,7 +2697,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:28">
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
@@ -2492,7 +2726,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:28">
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
@@ -2521,7 +2755,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:28">
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
@@ -2550,7 +2784,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:28">
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
@@ -2579,7 +2813,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:28">
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -2608,7 +2842,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:28">
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -2637,7 +2871,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:28">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -2666,7 +2900,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:28">
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -2695,7 +2929,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:28">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -2724,7 +2958,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:28">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -2753,7 +2987,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:28">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -2782,7 +3016,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:28">
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -2811,7 +3045,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:28">
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -2840,7 +3074,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:28">
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -2869,7 +3103,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:28">
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -2898,7 +3132,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:28">
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -2927,7 +3161,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:28">
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -2956,7 +3190,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:28">
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -2985,7 +3219,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:28">
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -3014,7 +3248,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:28">
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -3043,7 +3277,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:28">
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -3072,7 +3306,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:28">
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -3101,7 +3335,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:28">
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -3130,7 +3364,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:28">
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -3159,7 +3393,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:28">
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -3188,7 +3422,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:28">
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -3217,7 +3451,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:28">
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -3246,7 +3480,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:28">
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -3275,7 +3509,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:28">
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -3304,7 +3538,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:28">
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -3333,7 +3567,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:28">
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -3362,7 +3596,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:28">
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -3391,7 +3625,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:28">
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -3420,7 +3654,7 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:28">
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -3449,7 +3683,7 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:28">
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -3478,7 +3712,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:28">
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -3507,7 +3741,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:28">
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -3536,7 +3770,7 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:28">
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -3565,7 +3799,7 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:28">
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -3594,7 +3828,7 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:28">
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -3623,7 +3857,7 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:28">
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -3652,7 +3886,7 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:28">
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -3681,7 +3915,7 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:28">
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -3710,7 +3944,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:28">
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -3739,7 +3973,7 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:28">
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -3768,7 +4002,7 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:28">
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
@@ -3797,7 +4031,7 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:28">
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -3826,7 +4060,7 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:28">
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -3855,7 +4089,7 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:28">
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -3884,7 +4118,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:28">
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -3913,7 +4147,7 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:28">
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -3942,7 +4176,7 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:28">
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -3971,7 +4205,7 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:28">
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -4000,7 +4234,7 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:28">
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -4029,7 +4263,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:28">
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -4058,7 +4292,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:28">
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -4087,7 +4321,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:28">
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -4116,7 +4350,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:28">
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -4145,7 +4379,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:28">
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
@@ -4174,7 +4408,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:28">
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -4203,7 +4437,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:28">
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -4232,7 +4466,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:28">
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -4261,7 +4495,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:28">
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -4290,7 +4524,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:28">
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -4319,7 +4553,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:28">
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -4348,7 +4582,7 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:28">
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -4377,7 +4611,7 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:28">
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -4406,7 +4640,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:28">
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -4435,7 +4669,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:28">
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -4464,7 +4698,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="107" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:28">
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -4493,7 +4727,7 @@
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
     </row>
-    <row r="108" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:28">
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -4522,7 +4756,7 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
     </row>
-    <row r="109" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:28">
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -4551,7 +4785,7 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
     </row>
-    <row r="110" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:28">
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -4580,7 +4814,7 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
     </row>
-    <row r="111" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:28">
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
@@ -4609,7 +4843,7 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
     </row>
-    <row r="112" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:28">
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -4638,7 +4872,7 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
     </row>
-    <row r="113" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:28">
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
@@ -4667,7 +4901,7 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
     </row>
-    <row r="114" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:28">
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
@@ -4696,7 +4930,7 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
     </row>
-    <row r="115" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:28">
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
@@ -4725,7 +4959,7 @@
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
     </row>
-    <row r="116" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:28">
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
@@ -4754,7 +4988,7 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
     </row>
-    <row r="117" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:28">
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -4783,7 +5017,7 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
     </row>
-    <row r="118" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:28">
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4"/>
@@ -4812,7 +5046,7 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
     </row>
-    <row r="119" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:28">
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
@@ -4841,7 +5075,7 @@
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
     </row>
-    <row r="120" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:28">
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
@@ -4870,7 +5104,7 @@
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
     </row>
-    <row r="121" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:28">
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
@@ -4899,7 +5133,7 @@
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
     </row>
-    <row r="122" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:28">
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -4928,7 +5162,7 @@
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
     </row>
-    <row r="123" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:28">
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>

--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinoguzmanf@moravian.edu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinoguzmanf@moravian.edu/CSCI_234/Project03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B89887-11C7-C049-B1F3-95D95373DA83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1EA154-565B-8A44-8B33-FBBADF9835E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="28360" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>User Story #1</t>
   </si>
@@ -170,12 +170,36 @@
   <si>
     <t>Francis &amp; Jorge</t>
   </si>
+  <si>
+    <t>Observer Strategy</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Updated requirements</t>
+  </si>
+  <si>
+    <t>Change truck to travel 30mph</t>
+  </si>
+  <si>
+    <t>Change distance between houses</t>
+  </si>
+  <si>
+    <t>Change time</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Observers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,7 +463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$F$34:$Q$34</c:f>
+              <c:f>'Agile Sprint Backlog'!$F$41:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -957,12 +981,12 @@
   </sheetPr>
   <dimension ref="B1:AB123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
@@ -980,7 +1004,7 @@
     <col min="24" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="50" customHeight="1">
+    <row r="1" spans="2:28" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1035,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="2:28" ht="35" customHeight="1">
+    <row r="2" spans="2:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1095,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="2:28" ht="25" customHeight="1">
+    <row r="3" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1125,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="2:28" ht="25" customHeight="1">
+    <row r="4" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1185,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="2:28" ht="25" customHeight="1">
+    <row r="5" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1245,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="2:28" ht="25" customHeight="1">
+    <row r="6" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1305,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="2:28" ht="25" customHeight="1">
+    <row r="7" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1365,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="2:28" ht="25" customHeight="1">
+    <row r="8" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
@@ -1401,7 +1425,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="2:28" ht="25" customHeight="1">
+    <row r="9" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1455,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="2:28" ht="25" customHeight="1">
+    <row r="10" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1491,7 +1515,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="2:28" ht="25" customHeight="1">
+    <row r="11" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1575,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="2:28" ht="25" customHeight="1">
+    <row r="12" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1635,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="2:28" ht="25" customHeight="1">
+    <row r="13" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1695,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="2:28" ht="25" customHeight="1">
+    <row r="14" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -1731,7 +1755,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="2:28" ht="25" customHeight="1">
+    <row r="15" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
@@ -1791,7 +1815,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="2:28" ht="25" customHeight="1">
+    <row r="16" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1845,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="2:28" ht="25" customHeight="1">
+    <row r="17" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
@@ -1881,7 +1905,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="2:28" ht="25" customHeight="1">
+    <row r="18" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
@@ -1941,7 +1965,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="2:28" ht="25" customHeight="1">
+    <row r="19" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
@@ -2001,7 +2025,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="2:28" ht="25" customHeight="1">
+    <row r="20" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
@@ -2061,7 +2085,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="2:28" ht="25" customHeight="1">
+    <row r="21" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +2145,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="2:28" ht="25" customHeight="1">
+    <row r="22" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
@@ -2181,7 +2205,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="2:28" ht="25" customHeight="1">
+    <row r="23" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
@@ -2241,7 +2265,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="2:28" ht="25" customHeight="1">
+    <row r="24" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
@@ -2271,11 +2295,13 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="2:28" ht="25" customHeight="1">
+    <row r="25" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.5</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2301,11 +2327,13 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="2:28" ht="25" customHeight="1">
+    <row r="26" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2331,9 +2359,9 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="2:28" ht="25" customHeight="1">
+    <row r="27" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2361,11 +2389,13 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="2:28" ht="35" customHeight="1">
+    <row r="28" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.5</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2391,25 +2421,27 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="2:28" ht="21" customHeight="1">
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+    <row r="29" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -2421,11 +2453,13 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="2:28" ht="14">
+    <row r="30" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2451,11 +2485,13 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="2:28" ht="14">
+    <row r="31" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2481,11 +2517,13 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="2:28" ht="14">
+    <row r="32" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2512,11 +2550,13 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="2:28" ht="14">
+    <row r="33" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -2543,61 +2583,23 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="2:28" ht="14">
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
-        <f>SUM(F3:F33)</f>
-        <v>30</v>
-      </c>
-      <c r="G34" s="5">
-        <f>SUM(G4:G33)</f>
-        <v>6.5</v>
-      </c>
-      <c r="H34" s="5">
-        <f>SUM(H3:H33)</f>
-        <v>2</v>
-      </c>
-      <c r="I34" s="5">
-        <f>SUM(I3:I33)</f>
-        <v>2</v>
-      </c>
-      <c r="J34" s="5">
-        <f>SUM(J3:J33)</f>
-        <v>8.1</v>
-      </c>
-      <c r="K34" s="5">
-        <f>SUM(K3:K33)</f>
-        <v>2.6</v>
-      </c>
-      <c r="L34" s="5">
-        <f>SUM(L4:L33)</f>
-        <v>1.5</v>
-      </c>
-      <c r="M34" s="5">
-        <f>SUM(M3:M33)</f>
-        <v>3.5</v>
-      </c>
-      <c r="N34" s="5">
-        <f>SUM(N3:N33)</f>
-        <v>4</v>
-      </c>
-      <c r="O34" s="5">
-        <f>SUM(O3:O33)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P34" s="5">
-        <f>SUM(P3:P33)</f>
-        <v>5</v>
-      </c>
-      <c r="Q34" s="5">
-        <f>SUM(Q3:Q33)</f>
-        <v>4</v>
-      </c>
+    <row r="34" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -2610,23 +2612,21 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="2:28">
-      <c r="B35" s="4"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+    <row r="35" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2639,23 +2639,25 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="2:28">
-      <c r="B36" s="4"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+    <row r="36" spans="2:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -2668,23 +2670,25 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="2:28">
-      <c r="B37" s="4"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+    <row r="37" spans="2:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
@@ -2697,23 +2701,25 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="2:28">
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+    <row r="38" spans="2:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -2726,23 +2732,25 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="2:28">
-      <c r="B39" s="4"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+    <row r="39" spans="2:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="B39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -2755,23 +2763,25 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="2:28">
-      <c r="B40" s="4"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
+    <row r="40" spans="2:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="B40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -2784,23 +2794,61 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="2:28">
-      <c r="B41" s="4"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
+    <row r="41" spans="2:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <f>SUM(F3:F40)</f>
+        <v>30</v>
+      </c>
+      <c r="G41" s="5">
+        <f>SUM(G4:G40)</f>
+        <v>6.5</v>
+      </c>
+      <c r="H41" s="5">
+        <f>SUM(H3:H40)</f>
+        <v>2</v>
+      </c>
+      <c r="I41" s="5">
+        <f>SUM(I3:I40)</f>
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
+        <f>SUM(J3:J40)</f>
+        <v>8.1</v>
+      </c>
+      <c r="K41" s="5">
+        <f>SUM(K3:K40)</f>
+        <v>2.6</v>
+      </c>
+      <c r="L41" s="5">
+        <f>SUM(L4:L40)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M41" s="5">
+        <f>SUM(M3:M40)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N41" s="5">
+        <f>SUM(N3:N40)</f>
+        <v>4</v>
+      </c>
+      <c r="O41" s="5">
+        <f>SUM(O3:O40)</f>
+        <v>3.5</v>
+      </c>
+      <c r="P41" s="5">
+        <f>SUM(P3:P40)</f>
+        <v>5</v>
+      </c>
+      <c r="Q41" s="5">
+        <f>SUM(Q3:Q40)</f>
+        <v>4</v>
+      </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -2813,7 +2861,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="2:28">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -2842,7 +2890,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="2:28">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -2871,7 +2919,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="2:28">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -2900,7 +2948,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="2:28">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -2929,7 +2977,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="2:28">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -2958,7 +3006,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="2:28">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -2987,7 +3035,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="2:28">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -3016,7 +3064,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="2:28">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -3045,7 +3093,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="2:28">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -3074,7 +3122,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="2:28">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -3103,7 +3151,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="2:28">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -3132,7 +3180,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="2:28">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -3161,7 +3209,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="2:28">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -3190,7 +3238,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="2:28">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -3219,7 +3267,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="2:28">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -3248,7 +3296,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="2:28">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -3277,7 +3325,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="2:28">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -3306,7 +3354,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="2:28">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -3335,7 +3383,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="2:28">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -3364,7 +3412,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="2:28">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -3393,7 +3441,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="2:28">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -3422,7 +3470,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="2:28">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -3451,7 +3499,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="2:28">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -3480,7 +3528,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="2:28">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -3509,7 +3557,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="2:28">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -3538,7 +3586,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="2:28">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -3567,7 +3615,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="2:28">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -3596,7 +3644,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="2:28">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -3625,7 +3673,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="2:28">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -3654,7 +3702,7 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="2:28">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -3683,7 +3731,7 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="2:28">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -3712,7 +3760,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="2:28">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -3741,7 +3789,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="2:28">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -3770,7 +3818,7 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="2:28">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -3799,7 +3847,7 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="2:28">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -3828,7 +3876,7 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="2:28">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -3857,7 +3905,7 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="2:28">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -3886,7 +3934,7 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="2:28">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -3915,7 +3963,7 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="2:28">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -3944,7 +3992,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="2:28">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -3973,7 +4021,7 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="2:28">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -4002,7 +4050,7 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="2:28">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
@@ -4031,7 +4079,7 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="2:28">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -4060,7 +4108,7 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="2:28">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -4089,7 +4137,7 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="2:28">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -4118,7 +4166,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="2:28">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -4147,7 +4195,7 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="2:28">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -4176,7 +4224,7 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="2:28">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -4205,7 +4253,7 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="2:28">
+    <row r="90" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -4234,7 +4282,7 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="2:28">
+    <row r="91" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -4263,7 +4311,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="2:28">
+    <row r="92" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -4292,7 +4340,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="2:28">
+    <row r="93" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -4321,7 +4369,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="2:28">
+    <row r="94" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -4350,7 +4398,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="2:28">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -4379,7 +4427,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="2:28">
+    <row r="96" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
@@ -4408,7 +4456,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="2:28">
+    <row r="97" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -4437,7 +4485,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="2:28">
+    <row r="98" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -4466,7 +4514,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="2:28">
+    <row r="99" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -4495,7 +4543,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="2:28">
+    <row r="100" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -4524,7 +4572,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="2:28">
+    <row r="101" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -4553,7 +4601,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="2:28">
+    <row r="102" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -4582,7 +4630,7 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="2:28">
+    <row r="103" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -4611,7 +4659,7 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="2:28">
+    <row r="104" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -4640,7 +4688,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" spans="2:28">
+    <row r="105" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -4669,7 +4717,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="2:28">
+    <row r="106" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -4698,7 +4746,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="107" spans="2:28">
+    <row r="107" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -4727,7 +4775,7 @@
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
     </row>
-    <row r="108" spans="2:28">
+    <row r="108" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -4756,7 +4804,7 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
     </row>
-    <row r="109" spans="2:28">
+    <row r="109" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -4785,7 +4833,7 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
     </row>
-    <row r="110" spans="2:28">
+    <row r="110" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -4814,7 +4862,7 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
     </row>
-    <row r="111" spans="2:28">
+    <row r="111" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
@@ -4843,7 +4891,7 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
     </row>
-    <row r="112" spans="2:28">
+    <row r="112" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -4872,7 +4920,7 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
     </row>
-    <row r="113" spans="2:28">
+    <row r="113" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
@@ -4901,7 +4949,7 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
     </row>
-    <row r="114" spans="2:28">
+    <row r="114" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
@@ -4930,7 +4978,7 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
     </row>
-    <row r="115" spans="2:28">
+    <row r="115" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
@@ -4959,7 +5007,7 @@
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
     </row>
-    <row r="116" spans="2:28">
+    <row r="116" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
@@ -4988,7 +5036,7 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
     </row>
-    <row r="117" spans="2:28">
+    <row r="117" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -5017,7 +5065,7 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
     </row>
-    <row r="118" spans="2:28">
+    <row r="118" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4"/>
@@ -5046,7 +5094,7 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
     </row>
-    <row r="119" spans="2:28">
+    <row r="119" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
@@ -5075,7 +5123,7 @@
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
     </row>
-    <row r="120" spans="2:28">
+    <row r="120" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
@@ -5104,7 +5152,7 @@
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
     </row>
-    <row r="121" spans="2:28">
+    <row r="121" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
@@ -5133,7 +5181,7 @@
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
     </row>
-    <row r="122" spans="2:28">
+    <row r="122" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -5162,7 +5210,7 @@
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
     </row>
-    <row r="123" spans="2:28">
+    <row r="123" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>

--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinoguzmanf@moravian.edu/CSCI_234/Project03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Documents/intro_software_engineering/Project03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1EA154-565B-8A44-8B33-FBBADF9835E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2AD577-1994-A842-BDE2-59844899CAA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="28360" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="460" windowWidth="16020" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$V$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$V$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>User Story #1</t>
   </si>
@@ -153,53 +153,29 @@
     <t>in Progress</t>
   </si>
   <si>
-    <t>Resizable Map</t>
+    <t>Change Time units</t>
   </si>
   <si>
-    <t>Foor order</t>
+    <t xml:space="preserve"> Observer Design Pattern </t>
   </si>
   <si>
-    <t>Cost Effetiveness</t>
+    <t xml:space="preserve">Introduction option(map display &amp; right/left simulation </t>
   </si>
   <si>
-    <t>Strategy Design Pattern (Routes)</t>
+    <t>Francis/Jorge</t>
   </si>
   <si>
-    <t>Small User Interface</t>
+    <t>Sprint Backlog/ Burndown Chart</t>
   </si>
   <si>
-    <t>Francis &amp; Jorge</t>
-  </si>
-  <si>
-    <t>Observer Strategy</t>
-  </si>
-  <si>
-    <t>Backlog</t>
-  </si>
-  <si>
-    <t>Updated requirements</t>
-  </si>
-  <si>
-    <t>Change truck to travel 30mph</t>
-  </si>
-  <si>
-    <t>Change distance between houses</t>
-  </si>
-  <si>
-    <t>Change time</t>
-  </si>
-  <si>
-    <t>Subjects</t>
-  </si>
-  <si>
-    <t>Observers</t>
+    <t xml:space="preserve">Update requirments </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,45 +439,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$F$41:$Q$41</c:f>
+              <c:f>'Agile Sprint Backlog'!$F$33:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>25.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1</c:v>
+                  <c:v>7.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5</c:v>
+                  <c:v>3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>4.3999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,7 +598,7 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -979,14 +955,14 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AB123"/>
+  <dimension ref="B1:AB125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
@@ -1004,7 +980,7 @@
     <col min="24" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:28" ht="50" customHeight="1">
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1011,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="2:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:28" ht="35" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1071,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:28" ht="25" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1101,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:28" ht="25" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1161,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:28" ht="25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1221,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:28" ht="25" customHeight="1">
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1281,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:28" ht="25" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1365,7 +1341,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:28" ht="25" customHeight="1">
       <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1401,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:28" ht="25" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1455,7 +1431,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:28" ht="25" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1515,7 +1491,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:28" ht="25" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1575,7 +1551,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:28" ht="25" customHeight="1">
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1635,7 +1611,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:28" ht="25" customHeight="1">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1695,7 +1671,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:28" ht="25" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -1755,7 +1731,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:28" ht="25" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
@@ -1815,7 +1791,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:28" ht="25" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1845,24 +1821,24 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:28" ht="25" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C17" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -1883,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P17" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -1905,24 +1881,24 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:28" ht="25" customHeight="1">
       <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="9">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="9">
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="G18" s="9">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -1931,16 +1907,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M18" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
@@ -1965,30 +1941,30 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:28" ht="25" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="9">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G19" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
       </c>
       <c r="I19" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="9">
         <v>0</v>
@@ -1997,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="L19" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M19" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N19" s="9">
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P19" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q19" s="9">
         <v>0</v>
@@ -2025,24 +2001,24 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:28" ht="25" customHeight="1">
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -2051,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -2069,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="9">
         <v>0</v>
@@ -2085,21 +2061,21 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:28" ht="25" customHeight="1">
       <c r="B21" s="9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C21" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -2117,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9">
         <v>0</v>
@@ -2126,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P21" s="9">
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -2145,42 +2121,42 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:28" ht="36" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C22" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="9">
-        <v>3</v>
+        <v>0.45</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I22" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N22" s="9">
         <v>0</v>
@@ -2205,55 +2181,25 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
+    <row r="23" spans="2:28" ht="25" customHeight="1">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -2265,25 +2211,25 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+    <row r="24" spans="2:28" ht="25" customHeight="1">
+      <c r="B24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -2295,13 +2241,11 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:28" ht="25" customHeight="1">
       <c r="B25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2327,13 +2271,11 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:28" ht="25" customHeight="1">
       <c r="B26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="9">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2359,9 +2301,9 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:28" ht="25" customHeight="1">
       <c r="B27" s="9" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2389,27 +2331,25 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+    <row r="28" spans="2:28" ht="25" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -2421,13 +2361,11 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:28" ht="25" customHeight="1">
       <c r="B29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="9">
         <v>1</v>
       </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2453,13 +2391,11 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:28" ht="35" customHeight="1">
       <c r="B30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2485,13 +2421,11 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:28" ht="21" customHeight="1">
       <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2517,13 +2451,11 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:28" ht="14">
       <c r="B32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="9">
         <v>2</v>
       </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2538,7 +2470,6 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
-      <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -2550,28 +2481,61 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="4"/>
+    <row r="33" spans="2:28" ht="14">
+      <c r="B33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <f>SUM(F3:F32)</f>
+        <v>25.1</v>
+      </c>
+      <c r="G33" s="5">
+        <f>SUM(G4:G32)</f>
+        <v>2.8</v>
+      </c>
+      <c r="H33" s="5">
+        <f>SUM(H3:H32)</f>
+        <v>2.15</v>
+      </c>
+      <c r="I33" s="5">
+        <f>SUM(I3:I32)</f>
+        <v>1.6</v>
+      </c>
+      <c r="J33" s="5">
+        <f>SUM(J3:J32)</f>
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="K33" s="5">
+        <f>SUM(K3:K32)</f>
+        <v>2.7</v>
+      </c>
+      <c r="L33" s="5">
+        <f>SUM(L4:L32)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(M3:M32)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="N33" s="5">
+        <f>SUM(N3:N32)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O33" s="5">
+        <f>SUM(O3:O32)</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="P33" s="5">
+        <f>SUM(P3:P32)</f>
+        <v>3.2</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>SUM(Q3:Q32)</f>
+        <v>4.3999999999999995</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -2583,23 +2547,23 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+    <row r="34" spans="2:28">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -2612,21 +2576,23 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
+    <row r="35" spans="2:28">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2639,25 +2605,23 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="2:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+    <row r="36" spans="2:28">
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -2670,25 +2634,23 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="2:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
+    <row r="37" spans="2:28">
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
@@ -2701,25 +2663,23 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="2:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
+    <row r="38" spans="2:28">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -2732,25 +2692,23 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="2:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
+    <row r="39" spans="2:28">
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -2763,25 +2721,23 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="2:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
+    <row r="40" spans="2:28">
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -2794,61 +2750,23 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="2:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
-        <f>SUM(F3:F40)</f>
-        <v>30</v>
-      </c>
-      <c r="G41" s="5">
-        <f>SUM(G4:G40)</f>
-        <v>6.5</v>
-      </c>
-      <c r="H41" s="5">
-        <f>SUM(H3:H40)</f>
-        <v>2</v>
-      </c>
-      <c r="I41" s="5">
-        <f>SUM(I3:I40)</f>
-        <v>2</v>
-      </c>
-      <c r="J41" s="5">
-        <f>SUM(J3:J40)</f>
-        <v>8.1</v>
-      </c>
-      <c r="K41" s="5">
-        <f>SUM(K3:K40)</f>
-        <v>2.6</v>
-      </c>
-      <c r="L41" s="5">
-        <f>SUM(L4:L40)</f>
-        <v>1.5</v>
-      </c>
-      <c r="M41" s="5">
-        <f>SUM(M3:M40)</f>
-        <v>3.5</v>
-      </c>
-      <c r="N41" s="5">
-        <f>SUM(N3:N40)</f>
-        <v>4</v>
-      </c>
-      <c r="O41" s="5">
-        <f>SUM(O3:O40)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P41" s="5">
-        <f>SUM(P3:P40)</f>
-        <v>5</v>
-      </c>
-      <c r="Q41" s="5">
-        <f>SUM(Q3:Q40)</f>
-        <v>4</v>
-      </c>
+    <row r="41" spans="2:28">
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -2861,7 +2779,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:28">
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -2890,7 +2808,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:28">
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -2919,7 +2837,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:28">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -2948,7 +2866,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:28">
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -2977,7 +2895,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:28">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -3006,7 +2924,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:28">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -3035,7 +2953,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:28">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -3064,7 +2982,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:28">
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -3093,7 +3011,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:28">
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -3122,7 +3040,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:28">
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -3151,7 +3069,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:28">
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -3180,7 +3098,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:28">
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -3209,7 +3127,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:28">
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -3238,7 +3156,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:28">
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -3267,7 +3185,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:28">
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -3296,7 +3214,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:28">
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -3325,7 +3243,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:28">
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -3354,7 +3272,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:28">
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -3383,7 +3301,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:28">
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -3412,7 +3330,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:28">
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -3441,7 +3359,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:28">
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -3470,7 +3388,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:28">
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -3499,7 +3417,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:28">
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -3528,7 +3446,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:28">
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -3557,7 +3475,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:28">
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -3586,7 +3504,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:28">
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -3615,7 +3533,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:28">
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -3644,7 +3562,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:28">
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -3673,7 +3591,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:28">
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -3702,7 +3620,7 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:28">
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -3731,7 +3649,7 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:28">
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -3760,7 +3678,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:28">
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -3789,7 +3707,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:28">
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -3818,7 +3736,7 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:28">
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -3847,7 +3765,7 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:28">
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -3876,7 +3794,7 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:28">
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -3905,7 +3823,7 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:28">
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -3934,7 +3852,7 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:28">
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -3963,7 +3881,7 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:28">
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -3992,7 +3910,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:28">
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -4021,7 +3939,7 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:28">
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -4050,7 +3968,7 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:28">
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
@@ -4079,7 +3997,7 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:28">
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -4108,7 +4026,7 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:28">
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -4137,7 +4055,7 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:28">
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -4166,7 +4084,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:28">
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -4195,7 +4113,7 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:28">
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -4224,7 +4142,7 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:28">
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -4253,7 +4171,7 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:28">
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -4282,7 +4200,7 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:28">
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -4311,7 +4229,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:28">
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -4340,7 +4258,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:28">
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -4369,7 +4287,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:28">
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -4398,7 +4316,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:28">
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -4427,7 +4345,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:28">
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
@@ -4456,7 +4374,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:28">
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -4485,7 +4403,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:28">
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -4514,7 +4432,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:28">
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -4543,7 +4461,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:28">
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -4572,7 +4490,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:28">
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -4601,7 +4519,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:28">
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -4630,7 +4548,7 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:28">
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -4659,7 +4577,7 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:28">
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -4688,7 +4606,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:28">
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -4717,7 +4635,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:28">
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -4746,7 +4664,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="107" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:28">
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -4775,7 +4693,7 @@
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
     </row>
-    <row r="108" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:28">
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -4804,7 +4722,7 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
     </row>
-    <row r="109" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:28">
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -4833,7 +4751,7 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
     </row>
-    <row r="110" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:28">
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -4862,7 +4780,7 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
     </row>
-    <row r="111" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:28">
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
@@ -4891,7 +4809,7 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
     </row>
-    <row r="112" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:28">
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -4920,7 +4838,7 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
     </row>
-    <row r="113" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:28">
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
@@ -4949,7 +4867,7 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
     </row>
-    <row r="114" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:28">
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
@@ -4978,7 +4896,7 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
     </row>
-    <row r="115" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:28">
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
@@ -5007,7 +4925,7 @@
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
     </row>
-    <row r="116" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:28">
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
@@ -5036,7 +4954,7 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
     </row>
-    <row r="117" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:28">
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -5065,7 +4983,7 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
     </row>
-    <row r="118" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:28">
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4"/>
@@ -5094,7 +5012,7 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
     </row>
-    <row r="119" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:28">
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
@@ -5123,7 +5041,7 @@
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
     </row>
-    <row r="120" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:28">
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
@@ -5152,7 +5070,7 @@
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
     </row>
-    <row r="121" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:28">
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
@@ -5181,7 +5099,7 @@
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
     </row>
-    <row r="122" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:28">
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -5210,7 +5128,7 @@
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
     </row>
-    <row r="123" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:28">
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
@@ -5239,6 +5157,64 @@
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
     </row>
+    <row r="124" spans="2:28">
+      <c r="B124" s="4"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+    </row>
+    <row r="125" spans="2:28">
+      <c r="B125" s="4"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:V1"/>
